--- a/Personal Budget - Portuguese.xlsx
+++ b/Personal Budget - Portuguese.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741F499A-228F-4525-828D-A4777C8AEC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BBB297-5A1E-4356-AFF4-61F21DCC4E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="Despesas">'Validação de Dados'!$E$5:$E$16</definedName>
     <definedName name="Investimentos">'Validação de Dados'!$G$19:$G$20</definedName>
     <definedName name="Meses">'Validação de Dados'!$M$5:$M$16</definedName>
-    <definedName name="Pagamento">'Validação de Dados'!$K$11</definedName>
+    <definedName name="Pagamento">'Validação de Dados'!$B$9:$B$10</definedName>
     <definedName name="Perdas">'Validação de Dados'!$G$5:$G$9</definedName>
     <definedName name="Receita_Líquida">'Validação de Dados'!$I$5:$I$16</definedName>
     <definedName name="Receitas">'Validação de Dados'!$G$12:$G$16</definedName>
@@ -345,7 +345,7 @@
     <t>Tab para criar uma nova linha.</t>
   </si>
   <si>
-    <t>Dívida Futura</t>
+    <t>Dívidas</t>
   </si>
 </sst>
 </file>
@@ -871,14 +871,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7746,17 +7746,17 @@
       <c r="I11" s="63" t="str">
         <v>T. Transporte</v>
       </c>
-      <c r="K11" s="63" t="str">
-        <f>B10</f>
-        <v>C. Crédito</v>
+      <c r="K11" s="63" t="str" cm="1">
+        <f t="array" ref="K11:K12">Pagamento</f>
+        <v>Dívidas</v>
       </c>
       <c r="M11" s="63" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
       <c r="E12" s="62" t="s">
         <v>52</v>
       </c>
@@ -7766,13 +7766,16 @@
       <c r="I12" s="63" t="str">
         <v>Taxa</v>
       </c>
+      <c r="K12" s="63" t="str">
+        <v>C. Crédito</v>
+      </c>
       <c r="M12" s="63" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
       <c r="E13" s="62" t="s">
         <v>50</v>
       </c>
@@ -7787,8 +7790,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
       <c r="E14" s="62" t="s">
         <v>51</v>
       </c>
@@ -7803,8 +7806,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
       <c r="E15" s="62" t="s">
         <v>11</v>
       </c>
@@ -7820,8 +7823,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
       <c r="E16" s="62" t="s">
         <v>32</v>
       </c>
@@ -7836,19 +7839,19 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
     </row>
     <row r="18" spans="2:7" ht="16.2" x14ac:dyDescent="0.4">
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
       <c r="G18" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
       <c r="G19" s="62" t="s">
         <v>43</v>
       </c>
@@ -7898,7 +7901,7 @@
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="81" t="str">
         <f ca="1">IF($C$7="",PROPER(TEXT(TODAY(),"MMMM")),PROPER(TEXT($C$7,"MMMM")))</f>
-        <v>Março</v>
+        <v>Abril</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>2</v>
@@ -7980,7 +7983,7 @@
       </c>
       <c r="C7" s="81">
         <f ca="1">TODAY()</f>
-        <v>45746</v>
+        <v>45755</v>
       </c>
       <c r="E7" s="57" t="str">
         <v>Farm. e Saúde.</v>
@@ -7997,7 +8000,7 @@
         <v>Banco 1</v>
       </c>
       <c r="C8" s="84" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B8,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B8,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B8,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B8,'Validação de Dados'!B5:C10,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C8" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B8,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B8,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) -SUMIFS(Tabela1[Valor],Tabela1[Categoria],B8,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B8,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E8" s="57" t="str">
@@ -8015,7 +8018,7 @@
         <v>Banco 2</v>
       </c>
       <c r="C9" s="84" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B9,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B9,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B9,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B9,'Validação de Dados'!B6:C11,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C9" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B9,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B9,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) -SUMIFS(Tabela1[Valor],Tabela1[Categoria],B9,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B9,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E9" s="57" t="str">
@@ -8033,7 +8036,7 @@
         <v>Dinheiro</v>
       </c>
       <c r="C10" s="84" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B10,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B10,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B10,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B10,'Validação de Dados'!B7:C12,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C10" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B10,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B10,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))-SUMIFS(Tabela1[Valor],Tabela1[Categoria],B10,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B10,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E10" s="57" t="str">
@@ -8051,7 +8054,7 @@
         <v>Savings</v>
       </c>
       <c r="C11" s="84" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B11,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B11,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B11,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B11,'Validação de Dados'!B8:C13,2,FALSE),2)</f>
+        <f t="array" aca="1" ref="C11" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B11,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B11,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))-SUMIFS(Tabela1[Valor],Tabela1[Categoria],B11,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B11,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E11" s="57" t="str">
@@ -8066,10 +8069,10 @@
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="48"/>
       <c r="B12" s="83" t="str">
-        <v>Dívida Futura</v>
-      </c>
-      <c r="C12" s="26" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">ROUND(SUM(SUMIFS(Tabela1[Valor],Tabela1[Operação],{"Receitas";"Transferir"},Tabela1[Conta],B12,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"&lt;&gt;Receitas",Tabela1[Operação],"&lt;&gt;Transferir",Tabela1[Conta],B12,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7))) - SUMIFS(Tabela1[Valor],Tabela1[Categoria],B12,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B12,'Validação de Dados'!B9:C14,2,FALSE),2)</f>
+        <v>Dívidas</v>
+      </c>
+      <c r="C12" s="26">
+        <f ca="1">ROUND(SUMIFS(Tabela1[Valor],Tabela1[Operação],"Despesas",Tabela1[Conta],B12,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"Pagamento",Tabela1[Categoria],B12,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B12,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E12" s="57" t="str">
@@ -8086,7 +8089,7 @@
         <v>C. Crédito</v>
       </c>
       <c r="C13" s="26">
-        <f ca="1">ROUND(-SUMIFS(Tabela1[Valor],Tabela1[Conta],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))+SUMIFS(Tabela1[Valor],Tabela1[Categoria],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))+VLOOKUP(B13,'Validação de Dados'!B6:C11,2,FALSE),2)</f>
+        <f ca="1">ROUND(SUMIFS(Tabela1[Valor],Tabela1[Operação],"Despesas",Tabela1[Conta],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))-SUMIFS(Tabela1[Valor],Tabela1[Categoria],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))+VLOOKUP(B13,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E13" s="57" t="str">
@@ -11361,10 +11364,10 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C3">
     <cfRule type="expression" dxfId="10" priority="19">
-      <formula>ROUND($C$3-SUM($C$8:$C$13),2)&lt;&gt;0</formula>
+      <formula>ROUND($C$3-SUM($C$8:$C$11)+SUM($C$12:$C$13),2)&lt;&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="20">
-      <formula>ROUND($C$3-SUM($C$8:$C$13),2)=0</formula>
+      <formula>ROUND($C$3-SUM($C$8:$C$11)+SUM($C$12:$C$13),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
@@ -11416,7 +11419,7 @@
       <formula>$F16="Dívidas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{60D5F252-CE9E-4A5F-916C-4BCED7BE4850}">
       <formula1>"Despesas, Receita Líquida"</formula1>
     </dataValidation>
@@ -11491,7 +11494,7 @@
         <v>77</v>
       </c>
       <c r="B2" s="69">
-        <f>SUM('Validação de Dados'!C5:C8)-('Validação de Dados'!C10)</f>
+        <f>SUM('Validação de Dados'!C5:C8)-SUM('Validação de Dados'!C9:C10)</f>
         <v>0</v>
       </c>
     </row>
@@ -13305,15 +13308,15 @@
         <v>37</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="98"/>
+      <c r="L2" s="99"/>
       <c r="M2" s="28"/>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="98"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.4">

--- a/Personal Budget - Portuguese.xlsx
+++ b/Personal Budget - Portuguese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcssi\Code\Personal_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BBB297-5A1E-4356-AFF4-61F21DCC4E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDC293-FB0C-4F95-A6AC-A59F989DE2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="C7" s="81">
         <f ca="1">TODAY()</f>
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="E7" s="57" t="str">
         <v>Farm. e Saúde.</v>
@@ -8089,7 +8089,7 @@
         <v>C. Crédito</v>
       </c>
       <c r="C13" s="26">
-        <f ca="1">ROUND(SUMIFS(Tabela1[Valor],Tabela1[Operação],"Despesas",Tabela1[Conta],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))-SUMIFS(Tabela1[Valor],Tabela1[Categoria],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK(C7),TODAY(),C7)))+VLOOKUP(B13,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
+        <f ca="1">ROUND(SUMIFS(Tabela1[Valor],Tabela1[Operação],"Despesas",Tabela1[Conta],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))-SUMIFS(Tabela1[Valor],Tabela1[Operação],"Pagamento",Tabela1[Categoria],B13,Tabela1[Data],"&lt;="&amp;(IF(ISBLANK($C$7),TODAY(),$C$7)))+VLOOKUP(B13,'Validação de Dados'!$B$5:$C$10,2,FALSE),2)</f>
         <v>0</v>
       </c>
       <c r="E13" s="57" t="str">
